--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,44 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{874381AC-2473-4588-A895-F7F867684664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349586D0-2974-4A72-ADAE-15E7210157AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C38C4-E528-4AC8-B667-CC8DC78AF2EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
     <sheet name="SignupController" sheetId="3" r:id="rId2"/>
     <sheet name="LoginController" sheetId="2" r:id="rId3"/>
+    <sheet name="UserSetController" sheetId="5" r:id="rId4"/>
+    <sheet name="UserGetController" sheetId="6" r:id="rId5"/>
+    <sheet name="UserDeleteController" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -59,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2469,6 +2461,1515 @@
             </a:rPr>
             <a:t>passEncoder : PasswordEncoder </a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D354045-F384-4B16-83B4-57AAC70AF5F3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="1743075"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>UserSetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AC8714-DE7A-4123-885F-FA6842F694DF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@PostMapping("/user/set_form")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>setUser (session : HttpSession, redirectAttributes : RedirectAttributes, form :  LoginForm)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3E3E4E-C950-4DFB-88C5-B16787CF1A1D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="1914525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UserSetService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F501F1C-ECE9-41FE-93D7-8BA9E1180D4F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="1743075"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>UserGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C39941-DC41-4582-8108-49C50BF1F308}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/user_get")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getUser (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B50503C-AC14-4990-BEB8-45A9188592F4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2000251" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UserGetService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5F91D1-11A0-488B-9C80-5F3F575380FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="1743075"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>UserDeleteController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCF19B1-0BB1-4405-9B00-A25E12D6409A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/user_delete")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteUser (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC389F85-EB49-4B55-BAD8-F777E17D175B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2343151" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UserDeleteService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2796,43 +4297,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72404079-614D-4403-8C5F-DFA3E818283B}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H7" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -2854,39 +4355,39 @@
       <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -2905,42 +4406,42 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -2949,7 +4450,169 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C38C4-E528-4AC8-B667-CC8DC78AF2EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B45D459-62E0-488C-94F5-1675BCA28966}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="UserSetController" sheetId="5" r:id="rId4"/>
     <sheet name="UserGetController" sheetId="6" r:id="rId5"/>
     <sheet name="UserDeleteController" sheetId="7" r:id="rId6"/>
+    <sheet name="ReservationsGetController" sheetId="8" r:id="rId7"/>
+    <sheet name="ReservationPastsGetController" sheetId="9" r:id="rId8"/>
+    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -3963,6 +3966,2026 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> : UserDeleteService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationsGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservations")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservations (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E03044C-129F-433B-A355-AA92873D91CE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2809876" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : ReservationsGetService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7188C846-AB4B-4E27-9D9D-58DFD54823F6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="5295900"/>
+          <a:ext cx="7810500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@RequestParams </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6B3D88-B6CC-435B-8659-6F263F0E13AA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationPastsGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBEEAE0-264A-4AE0-AC7E-F5D842CA51DA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation_pasts")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationPasts (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322882A0-1080-46DE-99DD-646B58FD8E46}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2809876" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : ReservationsGetService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF95CC2B-5491-4FB6-8A42-939F3440A401}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="5295900"/>
+          <a:ext cx="8153400" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>reservation_past</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationPast (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@RequestParams </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationDeleteController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="4257675"/>
+          <a:ext cx="8248650" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation_delete")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, params : @RequestParams)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2809876" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : ReservationDeleteService</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -4567,7 +6590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
@@ -4615,4 +6638,166 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B16E93-30DD-43E0-B031-324D106958E1}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\controller\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B45D459-62E0-488C-94F5-1675BCA28966}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
@@ -1772,7 +1772,25 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>return (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+            <a:t>return (session : HttpSession, model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Model, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>redirectAttributes : RedirectAttributes)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6374,8 +6392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6752,8 +6770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F58325-70DC-472C-BFFC-924E8B7D9609}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -54,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1813,6 +1824,186 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0776D66C-D37C-4A3D-BD8C-D4EF702C7FDE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E914401F-AF0F-408F-872C-E961877D1298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="3667125"/>
+          <a:ext cx="2667000" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>mailService : MailSendService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6342,39 +6533,39 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6392,43 +6583,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
       <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6450,39 +6641,39 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6504,39 +6695,39 @@
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6558,39 +6749,39 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6612,39 +6803,39 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6666,39 +6857,39 @@
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6720,39 +6911,39 @@
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6774,39 +6965,39 @@
       <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F58325-70DC-472C-BFFC-924E8B7D9609}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF02B305-A211-4233-8DBC-F85C1321419E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
+  </si>
+  <si>
+    <t>return ← back</t>
   </si>
 </sst>
 </file>
@@ -6583,8 +6586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
-      <selection activeCell="Y40" sqref="Y40"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6605,6 +6608,11 @@
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15">
+      <c r="N49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="12:15">

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF02B305-A211-4233-8DBC-F85C1321419E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B74FEA06-8EF8-40E1-9E11-6098014DFCE4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
@@ -6586,7 +6586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
@@ -6753,8 +6753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B74FEA06-8EF8-40E1-9E11-6098014DFCE4}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0DE3E65-0A4F-4D88-90CD-3F5BC1F1E86C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
@@ -2689,15 +2689,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2715,7 +2715,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="1743075"/>
+          <a:off x="6343650" y="2105025"/>
           <a:ext cx="8343900" cy="9067800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2786,7 +2786,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AC8714-DE7A-4123-885F-FA6842F694DF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7D354045-F384-4B16-83B4-57AAC70AF5F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2938,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@PostMapping("/user/set_form")</a:t>
+            <a:t>@PostMapping("/user/user_update")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2960,7 +2960,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>setUser (session : HttpSession, redirectAttributes : RedirectAttributes, form :  LoginForm)</a:t>
+            <a:t>setUser (session : HttpSession, redirectAttributes : RedirectAttributes, form :  UserSetForm)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3179,6 +3179,454 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBE9A37-FDE8-4267-83FA-DB15AB04FD6C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0F3E3E4E-C950-4DFB-88C5-B16787CF1A1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="5191125"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/user_update")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getUser (session : HttpSession, redirectAttributes : RedirectAttributes, form :  UserSetForm)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8875A0-5F5C-4C21-9F30-36EDE7E20B6D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1BBE9A37-FDE8-4267-83FA-DB15AB04FD6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="6248400"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/user_update/return")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>setReturn (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6699,8 +7147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6753,7 +7201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0DE3E65-0A4F-4D88-90CD-3F5BC1F1E86C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A2D6F9-E757-4A74-841B-7DC105F43F90}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
@@ -3603,7 +3603,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>setReturn (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+            <a:t>back(session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7148,7 +7148,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29525"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A2D6F9-E757-4A74-841B-7DC105F43F90}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{536FCBBB-F899-429B-9EA2-103618837B7D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -3626,6 +3626,186 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7815790C-4D99-4F82-9A52-1430E3608844}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3D8875A0-5F5C-4C21-9F30-36EDE7E20B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401175" y="3381375"/>
+          <a:ext cx="2619375" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>passEncoder : PasswordEncoder</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7145,10 +7325,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
-  <dimension ref="F20:O105"/>
+  <dimension ref="G20:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7183,11 +7363,8 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="105" spans="7:7" ht="30">
+      <c r="G105" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{536FCBBB-F899-429B-9EA2-103618837B7D}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32786C60-46F6-43D7-9FB1-28AD2D27AAAF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
     <sheet name="SignupController" sheetId="3" r:id="rId2"/>
-    <sheet name="LoginController" sheetId="2" r:id="rId3"/>
-    <sheet name="UserSetController" sheetId="5" r:id="rId4"/>
-    <sheet name="UserGetController" sheetId="6" r:id="rId5"/>
-    <sheet name="UserDeleteController" sheetId="7" r:id="rId6"/>
-    <sheet name="ReservationsGetController" sheetId="8" r:id="rId7"/>
-    <sheet name="ReservationPastsGetController" sheetId="9" r:id="rId8"/>
-    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId9"/>
+    <sheet name="LogoutController" sheetId="11" r:id="rId3"/>
+    <sheet name="LoginController" sheetId="2" r:id="rId4"/>
+    <sheet name="UserSetController" sheetId="5" r:id="rId5"/>
+    <sheet name="UserGetController" sheetId="6" r:id="rId6"/>
+    <sheet name="UserDeleteController" sheetId="7" r:id="rId7"/>
+    <sheet name="ReservationsGetController" sheetId="8" r:id="rId8"/>
+    <sheet name="ReservationPastsGetController" sheetId="9" r:id="rId9"/>
+    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -882,6 +883,509 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationDeleteController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="4257675"/>
+          <a:ext cx="8248650" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation_delete")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, params : @RequestParams)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2809876" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : ReservationDeleteService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2036,6 +2540,314 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AED650-5A8C-48EC-A36C-A1CBD87B5239}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="1743075"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>LogoutController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858B6E5A-C965-47E6-A99C-685E45EE1C95}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B2AED650-5A8C-48EC-A36C-A1CBD87B5239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="5838825"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/logout")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>logout (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
@@ -2684,7 +3496,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3815,7 +4627,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4318,7 +5130,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4821,7 +5633,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5569,7 +6381,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6330,509 +7142,6 @@
             </a:rPr>
             <a:t>--r String</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1762125"/>
-          <a:ext cx="8343900" cy="9067800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationDeleteController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="4257675"/>
-          <a:ext cx="8248650" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/reservation_delete")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, params : @RequestParams)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2809876" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : ReservationDeleteService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7210,6 +7519,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
@@ -7270,11 +7633,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329986C0-14B3-4C9F-B9AF-81FBAF041C30}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="31" spans="7:8" ht="18.75"/>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7323,11 +7739,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="G20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
@@ -7374,7 +7790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7428,7 +7844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7482,7 +7898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7536,7 +7952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B16E93-30DD-43E0-B031-324D106958E1}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7588,58 +8004,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32786C60-46F6-43D7-9FB1-28AD2D27AAAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F41BB1-79B0-41F0-BB16-FDCBC38E7B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
@@ -34,10 +34,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7473,39 +7473,39 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7527,39 +7527,39 @@
       <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7581,44 +7581,44 @@
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="12:15">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.4">
       <c r="N49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7636,42 +7636,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329986C0-14B3-4C9F-B9AF-81FBAF041C30}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="31" spans="7:8" ht="18.75"/>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7693,39 +7694,39 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7747,39 +7748,39 @@
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="7:7" ht="30">
+    <row r="105" spans="7:7" ht="30" x14ac:dyDescent="0.6">
       <c r="G105" s="2"/>
     </row>
   </sheetData>
@@ -7798,39 +7799,39 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7852,39 +7853,39 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7902,43 +7903,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7960,39 +7961,39 @@
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F41BB1-79B0-41F0-BB16-FDCBC38E7B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{37F41BB1-79B0-41F0-BB16-FDCBC38E7B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD9759E-124B-42E5-96EB-3D7068889ADA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
@@ -34,10 +34,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5735,7 +5735,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6135,26 +6135,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 12">
+        <xdr:cNvPr id="5" name="四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7188C846-AB4B-4E27-9D9D-58DFD54823F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66840A-16E1-4FC2-A5A0-9BB499A345C1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7E03044C-129F-433B-A355-AA92873D91CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6162,7 +6162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638925" y="5295900"/>
+          <a:off x="533400" y="18430875"/>
           <a:ext cx="7810500" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7473,39 +7473,39 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7527,39 +7527,39 @@
       <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7581,44 +7581,44 @@
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="12:15">
       <c r="N49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7640,39 +7640,39 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7694,39 +7694,39 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7748,39 +7748,39 @@
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="7:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="7:7" ht="30">
       <c r="G105" s="2"/>
     </row>
   </sheetData>
@@ -7799,39 +7799,39 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7853,39 +7853,39 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7903,43 +7903,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7961,39 +7961,39 @@
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{37F41BB1-79B0-41F0-BB16-FDCBC38E7B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD9759E-124B-42E5-96EB-3D7068889ADA}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{37F41BB1-79B0-41F0-BB16-FDCBC38E7B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AFA748D-BA69-4E92-879D-99D9B2A6DEF9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
-    <sheet name="SignupController" sheetId="3" r:id="rId2"/>
-    <sheet name="LogoutController" sheetId="11" r:id="rId3"/>
-    <sheet name="LoginController" sheetId="2" r:id="rId4"/>
-    <sheet name="UserSetController" sheetId="5" r:id="rId5"/>
-    <sheet name="UserGetController" sheetId="6" r:id="rId6"/>
-    <sheet name="UserDeleteController" sheetId="7" r:id="rId7"/>
-    <sheet name="ReservationsGetController" sheetId="8" r:id="rId8"/>
-    <sheet name="ReservationPastsGetController" sheetId="9" r:id="rId9"/>
-    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId10"/>
+    <sheet name="SignupController" sheetId="3" r:id="rId1"/>
+    <sheet name="LogoutController" sheetId="11" r:id="rId2"/>
+    <sheet name="LoginController" sheetId="2" r:id="rId3"/>
+    <sheet name="UserSetController" sheetId="5" r:id="rId4"/>
+    <sheet name="UserGetController" sheetId="6" r:id="rId5"/>
+    <sheet name="UserDeleteController" sheetId="7" r:id="rId6"/>
+    <sheet name="ReservationsGetController" sheetId="8" r:id="rId7"/>
+    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -59,10 +57,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> アクター別パッケージ名</t>
+    <t>return ← back</t>
   </si>
   <si>
-    <t>return ← back</t>
+    <t xml:space="preserve"> アクター別パッケージ名</t>
   </si>
 </sst>
 </file>
@@ -191,1221 +189,6 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FB28D2-B0E7-4F6D-B3B1-9220C2CCECF1}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="1476375"/>
-          <a:ext cx="8343900" cy="7734300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>PassSetController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5069FFDF-2BB3-4C00-A39B-9D9533B4D89B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{82EFF9A3-300E-4B96-AA5D-B19230D649C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="3086100"/>
-          <a:ext cx="1895475" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service : PassSetService</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A181F88-4E0F-4BE9-B1DD-9BE7FB12C1F2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5069FFDF-2BB3-4C00-A39B-9D9533B4D89B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6819900" y="3600450"/>
-          <a:ext cx="8039100" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@PostMapping("/user/repass_send")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>sendRepassEmail (session : HttpSession, redirectAttributes : RedirectAttributes, form :  RepassEmailForm)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979C36B4-7FF6-4ED2-AA53-0DADE8E25C84}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A181F88-4E0F-4BE9-B1DD-9BE7FB12C1F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7029450" y="4648200"/>
-          <a:ext cx="7743825" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@PostMapping("/user/set_pass")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>setNewPass (session : HttpSession, redirectAttributes : RedirectAttributes, form :  NewPassForm)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1762125"/>
-          <a:ext cx="8343900" cy="9067800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationDeleteController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="4257675"/>
-          <a:ext cx="8248650" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/reservation_delete")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, params : @RequestParams)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2809876" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : ReservationDeleteService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1174388-7E10-4969-9B6B-8E62DB6C7909}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
@@ -2097,248 +880,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914401F-AF0F-408F-872C-E961877D1298}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9E58CA47-D76B-4CF3-AB75-824D46D74819}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7410450" y="4619625"/>
-          <a:ext cx="6667500" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/signup/return")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>return (session : HttpSession, model</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Model, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>redirectAttributes : RedirectAttributes)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -2517,10 +1058,234 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CEDD7A-AAD6-4AA3-9BAB-9C11D0592A96}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0776D66C-D37C-4A3D-BD8C-D4EF702C7FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="5400675"/>
+          <a:ext cx="6667500" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/signup/return")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>back (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2828,7 +1593,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3496,7 +2261,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4627,7 +3392,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5130,7 +3895,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5633,7 +4398,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6381,7 +5146,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6401,7 +5166,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6B3D88-B6CC-435B-8659-6F263F0E13AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
@@ -6455,7 +5220,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ReservationPastsGetController</a:t>
+            <a:t>ReservationDeleteController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6464,26 +5229,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="四角形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBEEAE0-264A-4AE0-AC7E-F5D842CA51DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6491,8 +5256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7353300" y="4181475"/>
-          <a:ext cx="6667500" cy="847725"/>
+          <a:off x="6562725" y="4257675"/>
+          <a:ext cx="8248650" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6635,7 +5400,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@GetMapping("/user/reservation_pasts")</a:t>
+            <a:t>@GetMapping("/user/reservation_delete")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6657,7 +5422,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservationPasts (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam String )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6704,7 +5469,7 @@
         <xdr:cNvPr id="4" name="四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322882A0-1080-46DE-99DD-646B58FD8E46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
@@ -6868,7 +5633,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> : ReservationsGetService</a:t>
+            <a:t> : ReservationDeleteService</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -6876,272 +5641,6 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF95CC2B-5491-4FB6-8A42-939F3440A401}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6638925" y="5295900"/>
-          <a:ext cx="8153400" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>reservation_past</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationPast (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@RequestParams </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7466,119 +5965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72404079-614D-4403-8C5F-DFA3E818283B}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7603,7 +5994,7 @@
     </row>
     <row r="49" spans="12:15">
       <c r="N49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="12:15">
@@ -7621,7 +6012,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7632,11 +6023,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329986C0-14B3-4C9F-B9AF-81FBAF041C30}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -7675,7 +6066,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7686,12 +6077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7729,7 +6120,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7740,12 +6131,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="G20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7791,12 +6182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7834,7 +6225,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7845,12 +6236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7888,7 +6279,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7899,12 +6290,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7942,7 +6333,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7953,12 +6344,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B16E93-30DD-43E0-B031-324D106958E1}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7996,7 +6387,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\controller\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{37F41BB1-79B0-41F0-BB16-FDCBC38E7B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AFA748D-BA69-4E92-879D-99D9B2A6DEF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignupController" sheetId="3" r:id="rId1"/>
-    <sheet name="LogoutController" sheetId="11" r:id="rId2"/>
-    <sheet name="LoginController" sheetId="2" r:id="rId3"/>
-    <sheet name="UserSetController" sheetId="5" r:id="rId4"/>
-    <sheet name="UserGetController" sheetId="6" r:id="rId5"/>
-    <sheet name="UserDeleteController" sheetId="7" r:id="rId6"/>
-    <sheet name="ReservationsGetController" sheetId="8" r:id="rId7"/>
-    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId8"/>
+    <sheet name="SearchReservationsGetController" sheetId="12" r:id="rId1"/>
+    <sheet name="SignupController" sheetId="3" r:id="rId2"/>
+    <sheet name="LogoutController" sheetId="11" r:id="rId3"/>
+    <sheet name="LoginController" sheetId="2" r:id="rId4"/>
+    <sheet name="UserSetController" sheetId="5" r:id="rId5"/>
+    <sheet name="UserGetController" sheetId="6" r:id="rId6"/>
+    <sheet name="UserDeleteController" sheetId="7" r:id="rId7"/>
+    <sheet name="ReservationsGetController" sheetId="8" r:id="rId8"/>
+    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,10 +33,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -67,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +175,527 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FC8DA1-AF33-4902-9CA5-11789B1CCDDF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SearchReservationsGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8072E56-094D-4820-B32E-6759A86E52A7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="4257675"/>
+          <a:ext cx="8248650" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservations/search")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservations (session : HttpSession, redirectAttributes : RedirectAttributes, form</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> SearchForm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADB4F80-FD91-4677-8915-C0E86E9A5041}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2809876" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : ReservationsGetService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1285,7 +1807,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1593,7 +2115,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2261,7 +2783,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3392,7 +3914,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3895,7 +4417,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4398,7 +4920,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5146,7 +5668,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5965,51 +6487,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0B78BB-DCBF-4346-A456-D888C1A0341D}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="12:15">
-      <c r="N49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -6018,52 +6535,57 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329986C0-14B3-4C9F-B9AF-81FBAF041C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="N49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -6078,6 +6600,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329986C0-14B3-4C9F-B9AF-81FBAF041C30}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -6085,39 +6661,39 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -6131,7 +6707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="G20:O105"/>
   <sheetViews>
@@ -6139,39 +6715,39 @@
       <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="7:7" ht="30">
+    <row r="105" spans="7:7" ht="30" x14ac:dyDescent="0.6">
       <c r="G105" s="2"/>
     </row>
   </sheetData>
@@ -6182,7 +6758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -6190,93 +6766,39 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -6291,46 +6813,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -6345,46 +6867,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29607"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D254C0-DE6E-4233-A7E3-DD092B258C9D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchReservationsGetController" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="UserGetController" sheetId="6" r:id="rId6"/>
     <sheet name="UserDeleteController" sheetId="7" r:id="rId7"/>
     <sheet name="ReservationsGetController" sheetId="8" r:id="rId8"/>
-    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId9"/>
+    <sheet name="ReservationGetController" sheetId="13" r:id="rId9"/>
+    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,10 +34,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -58,17 +59,17 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>return ← back</t>
+    <t xml:space="preserve"> アクター別パッケージ名</t>
   </si>
   <si>
-    <t xml:space="preserve"> アクター別パッケージ名</t>
+    <t>return ← back</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +692,509 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationDeleteController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="4257675"/>
+          <a:ext cx="8248650" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation_delete")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2809876" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : ReservationDeleteService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5688,7 +6192,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6CAE06-CD22-4307-9FD0-739C5CF72FCE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
@@ -5742,7 +6246,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ReservationDeleteController</a:t>
+            <a:t>ReservationGetController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5753,24 +6257,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="四角形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24955C02-01ED-46E8-8F41-9A71566E95D7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8C6CAE06-CD22-4307-9FD0-739C5CF72FCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5778,8 +6282,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="4257675"/>
-          <a:ext cx="8248650" cy="847725"/>
+          <a:off x="6562725" y="3943350"/>
+          <a:ext cx="8248650" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5922,7 +6426,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@GetMapping("/user/reservation_delete")</a:t>
+            <a:t>@GetMapping("/user/reservation")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5944,7 +6448,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam String )</a:t>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam  int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5975,26 +6479,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
+        <xdr:cNvPr id="5" name="四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6896DAED-9A5E-4004-8030-520478123599}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{24955C02-01ED-46E8-8F41-9A71566E95D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6002,8 +6506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2809876" cy="371475"/>
+          <a:off x="6553200" y="2990850"/>
+          <a:ext cx="8248650" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6146,23 +6650,8 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : ReservationDeleteService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+            <a:t>service : ReservationGetService</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6490,46 +6979,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0B78BB-DCBF-4346-A456-D888C1A0341D}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6548,47 +7091,47 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="12:15">
       <c r="N49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6607,42 +7150,42 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6661,42 +7204,42 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6715,39 +7258,39 @@
       <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="7:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="7:7" ht="30">
       <c r="G105" s="2"/>
     </row>
   </sheetData>
@@ -6766,42 +7309,42 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6820,42 +7363,42 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6874,42 +7417,42 @@
       <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6921,55 +7464,55 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957F6536-EA1A-4B76-8C8C-89145860AF90}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15" ht="18.75">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D254C0-DE6E-4233-A7E3-DD092B258C9D}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2ADA38A-8178-4813-B60D-D6ABF1094A91}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchReservationsGetController" sheetId="12" r:id="rId1"/>
@@ -3982,7 +3982,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getUser (session : HttpSession, redirectAttributes : RedirectAttributes, form :  UserSetForm)</a:t>
+            <a:t>getUser (session : HttpSession, redirectAttributes : RedirectAttributes )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7254,8 +7254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="G20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7467,7 +7467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957F6536-EA1A-4B76-8C8C-89145860AF90}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2025\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2ADA38A-8178-4813-B60D-D6ABF1094A91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FC2E9-BFAC-42E1-BD05-87D378F31F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SearchReservationsGetController" sheetId="12" r:id="rId1"/>
-    <sheet name="SignupController" sheetId="3" r:id="rId2"/>
-    <sheet name="LogoutController" sheetId="11" r:id="rId3"/>
-    <sheet name="LoginController" sheetId="2" r:id="rId4"/>
-    <sheet name="UserSetController" sheetId="5" r:id="rId5"/>
-    <sheet name="UserGetController" sheetId="6" r:id="rId6"/>
-    <sheet name="UserDeleteController" sheetId="7" r:id="rId7"/>
-    <sheet name="ReservationsGetController" sheetId="8" r:id="rId8"/>
-    <sheet name="ReservationGetController" sheetId="13" r:id="rId9"/>
-    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId10"/>
+    <sheet name="InterviewersGetController" sheetId="14" r:id="rId1"/>
+    <sheet name="SearchReservationsGetController" sheetId="12" r:id="rId2"/>
+    <sheet name="SignupController" sheetId="3" r:id="rId3"/>
+    <sheet name="LogoutController" sheetId="11" r:id="rId4"/>
+    <sheet name="LoginController" sheetId="2" r:id="rId5"/>
+    <sheet name="UserSetController" sheetId="5" r:id="rId6"/>
+    <sheet name="UserGetController" sheetId="6" r:id="rId7"/>
+    <sheet name="UserDeleteController" sheetId="7" r:id="rId8"/>
+    <sheet name="ReservationsGetController" sheetId="8" r:id="rId9"/>
+    <sheet name="ReservationGetController" sheetId="13" r:id="rId10"/>
+    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,10 +35,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="5">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -69,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +192,1518 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7736A3-CCAC-42A8-A907-F4EA4DFD1786}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>InterviewersGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE33A6DE-9BE3-4EE9-8417-BA9C099429F0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="4257675"/>
+          <a:ext cx="8248650" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/interviewers")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getInterviewers ( session : HttpSession, redirectAttributes : RedirectAttributes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8CFBD7-5E9B-4934-B174-6352F514ED2D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2809876" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : InterviewersGetService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6CAE06-CD22-4307-9FD0-739C5CF72FCE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24955C02-01ED-46E8-8F41-9A71566E95D7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8C6CAE06-CD22-4307-9FD0-739C5CF72FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="3943350"/>
+          <a:ext cx="8248650" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam  int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6896DAED-9A5E-4004-8030-520478123599}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{24955C02-01ED-46E8-8F41-9A71566E95D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="2990850"/>
+          <a:ext cx="8248650" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : ReservationGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationDeleteController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="4257675"/>
+          <a:ext cx="8248650" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation_delete")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2809876" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : ReservationDeleteService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FC8DA1-AF33-4902-9CA5-11789B1CCDDF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
@@ -692,510 +2205,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1762125"/>
-          <a:ext cx="8343900" cy="9067800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationDeleteController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="4257675"/>
-          <a:ext cx="8248650" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/reservation_delete")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam String )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2809876" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : ReservationDeleteService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2311,7 +3321,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2619,7 +3629,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3287,7 +4297,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4418,7 +5428,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4921,7 +5931,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5424,7 +6434,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6163,494 +7173,6 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6CAE06-CD22-4307-9FD0-739C5CF72FCE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1762125"/>
-          <a:ext cx="8343900" cy="9067800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationGetController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24955C02-01ED-46E8-8F41-9A71566E95D7}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8C6CAE06-CD22-4307-9FD0-739C5CF72FCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="3943350"/>
-          <a:ext cx="8248650" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/reservation")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam  int)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6896DAED-9A5E-4004-8030-520478123599}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{24955C02-01ED-46E8-8F41-9A71566E95D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6553200" y="2990850"/>
-          <a:ext cx="8248650" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service : ReservationGetService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6976,46 +7498,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0B78BB-DCBF-4346-A456-D888C1A0341D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7942E095-1E94-46DD-8817-F1D827439B01}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7030,6 +7552,60 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957F6536-EA1A-4B76-8C8C-89145860AF90}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7037,39 +7613,39 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7084,51 +7660,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0B78BB-DCBF-4346-A456-D888C1A0341D}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="12:15">
-      <c r="N49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7137,52 +7708,57 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329986C0-14B3-4C9F-B9AF-81FBAF041C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="N49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7197,6 +7773,60 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329986C0-14B3-4C9F-B9AF-81FBAF041C30}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7204,39 +7834,39 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7250,47 +7880,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="G20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="7:7" ht="30">
+    <row r="105" spans="7:7" ht="30" x14ac:dyDescent="0.6">
       <c r="G105" s="2"/>
     </row>
   </sheetData>
@@ -7301,7 +7931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7309,93 +7939,39 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7410,46 +7986,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7464,46 +8040,46 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957F6536-EA1A-4B76-8C8C-89145860AF90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7512,7 +8088,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2025\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FC2E9-BFAC-42E1-BD05-87D378F31F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{8A9FC2E9-BFAC-42E1-BD05-87D378F31F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49BFB9DB-E6DD-4662-997D-33FF6B1A43D8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <sheet name="ReservationsGetController" sheetId="8" r:id="rId9"/>
     <sheet name="ReservationGetController" sheetId="13" r:id="rId10"/>
     <sheet name="ReservationDeleteController" sheetId="10" r:id="rId11"/>
+    <sheet name="ReservationAblesGetController" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,10 +36,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="5">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -70,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1676,6 +1677,674 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313E17DC-837A-476F-AB1D-C394AB3FAE07}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationAblesGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9167750-787C-4457-8A27-747F5D0FE1F5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{313E17DC-837A-476F-AB1D-C394AB3FAE07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="5676900"/>
+          <a:ext cx="7905750" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation_ables_get")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationAbles (session : HttpSession, redirectAttributes : RedirectAttributes, interviewerId : @RequestParam  int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1D745D-7E30-496E-B8FE-D541BE271493}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D9167750-787C-4457-8A27-747F5D0FE1F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="3857625"/>
+          <a:ext cx="3114675" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : ReservationAblesGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A46B88-E61F-48BC-966B-476BD7974BD6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9D1D745D-7E30-496E-B8FE-D541BE271493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="4381500"/>
+          <a:ext cx="3114675" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>timesService : TimesGetService</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7501,43 +8170,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7942E095-1E94-46DD-8817-F1D827439B01}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7559,39 +8228,39 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7613,39 +8282,39 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7659,6 +8328,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3F9568-3053-452E-B851-42B91AD47D73}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0B78BB-DCBF-4346-A456-D888C1A0341D}">
   <dimension ref="F20:O105"/>
@@ -7667,39 +8390,39 @@
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7721,44 +8444,44 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="12:15">
       <c r="N49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7780,39 +8503,39 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7834,39 +8557,39 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7888,39 +8611,39 @@
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="7:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="7:7" ht="30">
       <c r="G105" s="2"/>
     </row>
   </sheetData>
@@ -7939,39 +8662,39 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -7993,39 +8716,39 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -8047,39 +8770,39 @@
       <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2025\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{8A9FC2E9-BFAC-42E1-BD05-87D378F31F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49BFB9DB-E6DD-4662-997D-33FF6B1A43D8}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{8A9FC2E9-BFAC-42E1-BD05-87D378F31F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56E60D82-98DF-4C66-8328-6AFBB0E3CEF6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InterviewersGetController" sheetId="14" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="UserSetController" sheetId="5" r:id="rId6"/>
     <sheet name="UserGetController" sheetId="6" r:id="rId7"/>
     <sheet name="UserDeleteController" sheetId="7" r:id="rId8"/>
-    <sheet name="ReservationsGetController" sheetId="8" r:id="rId9"/>
-    <sheet name="ReservationGetController" sheetId="13" r:id="rId10"/>
-    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId11"/>
-    <sheet name="ReservationAblesGetController" sheetId="15" r:id="rId12"/>
+    <sheet name="ReservationRegisterController" sheetId="16" r:id="rId9"/>
+    <sheet name="ReservationsGetController" sheetId="8" r:id="rId10"/>
+    <sheet name="ReservationGetController" sheetId="13" r:id="rId11"/>
+    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId12"/>
+    <sheet name="ReservationAblesGetController" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="5">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -714,6 +715,754 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationsGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservations")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservations (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E03044C-129F-433B-A355-AA92873D91CE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="3400425"/>
+          <a:ext cx="2809876" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : ReservationsGetService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66840A-16E1-4FC2-A5A0-9BB499A345C1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7E03044C-129F-433B-A355-AA92873D91CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="18430875"/>
+          <a:ext cx="7810500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@RequestParams </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6CAE06-CD22-4307-9FD0-739C5CF72FCE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
@@ -1182,7 +1931,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1685,7 +2434,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7108,22 +7857,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC58BB2-3B8D-48CF-93AF-66AF44470200}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
@@ -7134,8 +7883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="1762125"/>
-          <a:ext cx="8343900" cy="9067800"/>
+          <a:off x="6562725" y="1476375"/>
+          <a:ext cx="11182350" cy="7734300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7177,7 +7926,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ReservationsGetController</a:t>
+            <a:t>ReservationRegisterController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7186,26 +7935,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="四角形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C61242-1FC2-4BC5-8333-430CD6FD001E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3FC58BB2-3B8D-48CF-93AF-66AF44470200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7213,8 +7962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7353300" y="4181475"/>
-          <a:ext cx="6667500" cy="847725"/>
+          <a:off x="7553325" y="5715000"/>
+          <a:ext cx="6667500" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7357,7 +8106,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@GetMapping("/user/reservations")</a:t>
+            <a:t>@GetMapping("/user/reservation_register/return")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7379,7 +8128,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservations (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+            <a:t>back (session : HttpSession)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7411,25 +8160,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E03044C-129F-433B-A355-AA92873D91CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E515927-4EED-4E8D-8962-B6619C726A1F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{26C61242-1FC2-4BC5-8333-430CD6FD001E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,8 +8186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2809876" cy="371475"/>
+          <a:off x="7381875" y="2876550"/>
+          <a:ext cx="2905125" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7581,23 +8330,8 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>service</a:t>
+            <a:t>service :  ReservationRegisterService</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : ReservationsGetService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7605,26 +8339,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 4">
+        <xdr:cNvPr id="5" name="四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66840A-16E1-4FC2-A5A0-9BB499A345C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F847B9-8B11-42A1-90EC-FE73A3488ED6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7E03044C-129F-433B-A355-AA92873D91CE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6E515927-4EED-4E8D-8962-B6619C726A1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7632,8 +8366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="18430875"/>
-          <a:ext cx="7810500" cy="847725"/>
+          <a:off x="7572375" y="3552825"/>
+          <a:ext cx="6877050" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7776,7 +8510,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@GetMapping("/user/reservation")</a:t>
+            <a:t>@GetMapping("/user/reservation_register_confirm")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7798,28 +8532,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@RequestParams </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t>confirm (session : HttpSession, redirectAttributes : RedirectAttributes, date : @RequestParam String, timeId : @RequestParam Integer, interviewerId : @RequestParam Integer)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7842,6 +8555,950 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F9528C-D1D7-4A98-BAFA-D62EC5F48681}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{67F847B9-8B11-42A1-90EC-FE73A3488ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="2438400"/>
+          <a:ext cx="2667000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>mailService : MailSendService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90860253-CD4F-4D20-A0F5-26BAECBFD26E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D3F9528C-D1D7-4A98-BAFA-D62EC5F48681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="4629150"/>
+          <a:ext cx="6667500" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@PostMapping("/user/reservation_register)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>register (session : HttpSession, redirectAttributes : RedirectAttributes, form : ReservationRegisterForm)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3241B57-BB4D-42F0-8CDA-18E33EB73AEF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{90860253-CD4F-4D20-A0F5-26BAECBFD26E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="2409825"/>
+          <a:ext cx="2667000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>timesRepository : TimesRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABC5381-E92F-43CB-94E7-F17ADEDF0E20}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D3241B57-BB4D-42F0-8CDA-18E33EB73AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="2838450"/>
+          <a:ext cx="2667000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>usersRepository : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B709FCE-06F8-4EC3-A3D6-58F152C93522}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0ABC5381-E92F-43CB-94E7-F17ADEDF0E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13201650" y="2409825"/>
+          <a:ext cx="3790950" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>interviewersRepository : InterviewersRepository</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8170,7 +9827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7942E095-1E94-46DD-8817-F1D827439B01}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -8221,6 +9878,60 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957F6536-EA1A-4B76-8C8C-89145860AF90}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -8274,7 +9985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -8328,7 +10039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3F9568-3053-452E-B851-42B91AD47D73}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -8763,40 +10474,41 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F79D4-B67C-4EBF-94A8-CEB068913468}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="49" spans="12:15" ht="18.75"/>
+    <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" ht="18.75">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -8811,7 +10523,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
+++ b/class_diagram/after/controller/user/面談予約システム_クラス図 (controller.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2025\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{8A9FC2E9-BFAC-42E1-BD05-87D378F31F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56E60D82-98DF-4C66-8328-6AFBB0E3CEF6}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{8A9FC2E9-BFAC-42E1-BD05-87D378F31F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66747EC3-53A5-4C93-886B-4E34FAAFD8B4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InterviewersGetController" sheetId="14" r:id="rId1"/>
@@ -4353,7 +4353,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0776D66C-D37C-4A3D-BD8C-D4EF702C7FDE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E914401F-AF0F-408F-872C-E961877D1298}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9E58CA47-D76B-4CF3-AB75-824D46D74819}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6837,6 +6837,186 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>passEncoder : PasswordEncoder</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA6F747-DDB3-4615-8F17-9D215C9B79ED}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7815790C-4D99-4F82-9A52-1430E3608844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12096750" y="3390900"/>
+          <a:ext cx="2419350" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>mailService: MailSendService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10151,7 +10331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -10319,7 +10499,7 @@
   <dimension ref="G20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10477,7 +10657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F79D4-B67C-4EBF-94A8-CEB068913468}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
